--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Automation\Selenium Workspaces\Patrick\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2D657D-C9EF-4E4E-9AE7-580C0A85974E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4DCF3-86CC-4733-9FC1-99FF590E107C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7C9B6C9D-CB45-49D1-BE9B-26ACB04F9574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{7C9B6C9D-CB45-49D1-BE9B-26ACB04F9574}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>firstname</t>
   </si>
@@ -57,6 +58,18 @@
   </si>
   <si>
     <t>Customer added successfully</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>Patrick Hally</t>
+  </si>
+  <si>
+    <t>Rupee</t>
   </si>
 </sst>
 </file>
@@ -410,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECED999-EA22-4EB2-B378-B270106F7E72}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -447,4 +460,35 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B315AE1-56CE-4F2D-942F-5454A43A3B53}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Automation\Selenium Workspaces\Patrick\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8A4DCF3-86CC-4733-9FC1-99FF590E107C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5862FB8-BD6E-42CE-832A-A23BAE1736AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{7C9B6C9D-CB45-49D1-BE9B-26ACB04F9574}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7C9B6C9D-CB45-49D1-BE9B-26ACB04F9574}"/>
   </bookViews>
   <sheets>
     <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>firstname</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>Rupee</t>
+  </si>
+  <si>
+    <t>Niamh</t>
+  </si>
+  <si>
+    <t>Murphy</t>
+  </si>
+  <si>
+    <t>W12345</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Looney</t>
+  </si>
+  <si>
+    <t>E12354</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>McCarthy</t>
+  </si>
+  <si>
+    <t>Y3743687</t>
   </si>
 </sst>
 </file>
@@ -421,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECED999-EA22-4EB2-B378-B270106F7E72}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,6 +481,48 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
@@ -466,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B315AE1-56CE-4F2D-942F-5454A43A3B53}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Automation\Selenium Workspaces\Patrick\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5862FB8-BD6E-42CE-832A-A23BAE1736AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00B1D0-8396-46E1-B7D7-83168CD2FBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7C9B6C9D-CB45-49D1-BE9B-26ACB04F9574}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddCustomerTest" sheetId="1" r:id="rId1"/>
-    <sheet name="OpenAccountTest" sheetId="2" r:id="rId2"/>
+    <sheet name="test_suite" sheetId="3" r:id="rId1"/>
+    <sheet name="AddCustomerTest" sheetId="1" r:id="rId2"/>
+    <sheet name="OpenAccountTest" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>firstname</t>
   </si>
@@ -97,6 +98,27 @@
   </si>
   <si>
     <t>Y3743687</t>
+  </si>
+  <si>
+    <t>TCID</t>
+  </si>
+  <si>
+    <t>Runmode</t>
+  </si>
+  <si>
+    <t>BankManagerLoginTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>AddCustomerTest</t>
+  </si>
+  <si>
+    <t>OpenAccountTest</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -447,10 +469,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{113D1EE7-05F8-4541-9D4E-6D4B61D30037}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECED999-EA22-4EB2-B378-B270106F7E72}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -531,7 +604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B315AE1-56CE-4F2D-942F-5454A43A3B53}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Automation\Selenium Workspaces\Patrick\DataDrivenFramework\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE00B1D0-8396-46E1-B7D7-83168CD2FBC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B795041D-95A7-44D5-B68D-D46E19A55E68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7C9B6C9D-CB45-49D1-BE9B-26ACB04F9574}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>firstname</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>runmode</t>
   </si>
 </sst>
 </file>
@@ -473,7 +476,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -521,15 +524,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ECED999-EA22-4EB2-B378-B270106F7E72}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,8 +548,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -556,8 +565,11 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -570,8 +582,11 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -584,8 +599,11 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -597,6 +615,9 @@
       </c>
       <c r="D5" t="s">
         <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
